--- a/doku/sonstige/GANTT-Diagramm.xlsx
+++ b/doku/sonstige/GANTT-Diagramm.xlsx
@@ -314,11 +314,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -409,24 +409,24 @@
   </sheetPr>
   <dimension ref="A1:Y20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X11" activeCellId="0" sqref="X11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V12" activeCellId="0" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="2" style="0" width="4.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="5.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="4.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="5.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="4.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="4.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="3.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="4.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="4.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="4.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="4.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="4.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="3.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="27" style="0" width="4.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="27" style="0" width="4.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="30" style="0" width="10.55"/>
   </cols>
   <sheetData>
@@ -636,8 +636,8 @@
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="7"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
       <c r="M6" s="7"/>
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
@@ -667,7 +667,7 @@
       <c r="J7" s="8"/>
       <c r="K7" s="9"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="7"/>
+      <c r="M7" s="11"/>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
       <c r="P7" s="12"/>
@@ -812,11 +812,11 @@
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
-      <c r="K12" s="9"/>
+      <c r="K12" s="17"/>
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
       <c r="N12" s="7"/>
-      <c r="O12" s="17"/>
+      <c r="O12" s="18"/>
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
       <c r="R12" s="10"/>
@@ -846,7 +846,7 @@
       <c r="M13" s="13"/>
       <c r="N13" s="7"/>
       <c r="O13" s="10"/>
-      <c r="P13" s="18"/>
+      <c r="P13" s="17"/>
       <c r="Q13" s="10"/>
       <c r="R13" s="10"/>
       <c r="S13" s="19"/>
@@ -875,8 +875,8 @@
       <c r="M14" s="13"/>
       <c r="N14" s="7"/>
       <c r="O14" s="10"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
       <c r="R14" s="10"/>
       <c r="S14" s="19"/>
       <c r="T14" s="10"/>
@@ -905,8 +905,8 @@
       <c r="N15" s="7"/>
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
       <c r="S15" s="19"/>
       <c r="T15" s="10"/>
       <c r="U15" s="10"/>
@@ -935,8 +935,8 @@
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
       <c r="Q16" s="10"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
       <c r="T16" s="10"/>
       <c r="U16" s="10"/>
       <c r="V16" s="10"/>

--- a/doku/sonstige/GANTT-Diagramm.xlsx
+++ b/doku/sonstige/GANTT-Diagramm.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,103 +19,88 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t xml:space="preserve">Kalenderwochen Wintersemester 2016/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tätigkeiten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">August</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oktober</t>
-  </si>
-  <si>
-    <t xml:space="preserve">November</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dezember</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Programmieren - GA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Programmieren - NN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Programmieren - Auswertung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code Aufräumen und Säubern</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zwischenpräsentation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abschlusspräsentation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doku - Einleitung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doku - Grundlagen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doku  - Stand der Technik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doku - Konzept</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doku - Implementierung</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
+  <si>
+    <t>Kalenderwochen Wintersemester 2016/2017</t>
+  </si>
+  <si>
+    <t>Tätigkeiten</t>
+  </si>
+  <si>
+    <t>Juli</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>Oktober</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>Dezember</t>
+  </si>
+  <si>
+    <t>Programmieren - GA</t>
+  </si>
+  <si>
+    <t>Programmieren - NN</t>
+  </si>
+  <si>
+    <t>Programmieren - Auswertung</t>
+  </si>
+  <si>
+    <t>Code Aufräumen und Säubern</t>
+  </si>
+  <si>
+    <t>Zwischenpräsentation</t>
+  </si>
+  <si>
+    <t>Abschlusspräsentation</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Doku - Einleitung</t>
+  </si>
+  <si>
+    <t>Doku - Grundlagen</t>
+  </si>
+  <si>
+    <t>Doku  - Stand der Technik</t>
+  </si>
+  <si>
+    <t>Doku - Konzept</t>
+  </si>
+  <si>
+    <t>Doku - Implementierung</t>
   </si>
   <si>
     <t xml:space="preserve">Doku - Evaluation </t>
   </si>
   <si>
-    <t xml:space="preserve">Doku - Zusammenfassung</t>
+    <t>Doku - Zusammenfassung</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
@@ -126,16 +110,9 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -148,7 +125,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,142 +180,162 @@
         <bgColor rgb="FFC55A11"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFF5050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFF99CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF339966"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="29">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -397,41 +394,339 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+  <a:themeElements>
+    <a:clrScheme name="Larissa">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Larissa">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Larissa">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Y20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V12" activeCellId="0" sqref="V12"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="2" style="0" width="4.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="5.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="4.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="4.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="3.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="4.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="4.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="4.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="4.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="3.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="27" style="0" width="4.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="30" style="0" width="10.55"/>
+    <col min="1" max="1" width="28.28515625" customWidth="1"/>
+    <col min="2" max="17" width="4.7109375" customWidth="1"/>
+    <col min="18" max="18" width="5.28515625" customWidth="1"/>
+    <col min="19" max="19" width="4.5703125" customWidth="1"/>
+    <col min="20" max="20" width="4.140625" customWidth="1"/>
+    <col min="21" max="21" width="4" customWidth="1"/>
+    <col min="22" max="22" width="4.28515625" customWidth="1"/>
+    <col min="23" max="23" width="4.5703125" customWidth="1"/>
+    <col min="24" max="24" width="4.85546875" customWidth="1"/>
+    <col min="25" max="25" width="4.42578125" customWidth="1"/>
+    <col min="26" max="26" width="3.85546875" customWidth="1"/>
+    <col min="27" max="29" width="4.5703125" customWidth="1"/>
+    <col min="30" max="1025" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -451,85 +746,85 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="5">
         <v>29</v>
       </c>
-      <c r="C2" s="5" t="n">
+      <c r="C2" s="6">
         <v>30</v>
       </c>
-      <c r="D2" s="5" t="n">
+      <c r="D2" s="6">
         <v>31</v>
       </c>
-      <c r="E2" s="5" t="n">
+      <c r="E2" s="6">
         <v>32</v>
       </c>
-      <c r="F2" s="5" t="n">
+      <c r="F2" s="6">
         <v>33</v>
       </c>
-      <c r="G2" s="5" t="n">
+      <c r="G2" s="6">
         <v>34</v>
       </c>
-      <c r="H2" s="5" t="n">
+      <c r="H2" s="6">
         <v>35</v>
       </c>
-      <c r="I2" s="5" t="n">
+      <c r="I2" s="6">
         <v>36</v>
       </c>
-      <c r="J2" s="5" t="n">
+      <c r="J2" s="6">
         <v>37</v>
       </c>
-      <c r="K2" s="5" t="n">
+      <c r="K2" s="6">
         <v>38</v>
       </c>
-      <c r="L2" s="5" t="n">
+      <c r="L2" s="6">
         <v>39</v>
       </c>
-      <c r="M2" s="5" t="n">
+      <c r="M2" s="6">
         <v>40</v>
       </c>
-      <c r="N2" s="4" t="n">
+      <c r="N2" s="5">
         <v>41</v>
       </c>
-      <c r="O2" s="5" t="n">
+      <c r="O2" s="6">
         <v>42</v>
       </c>
-      <c r="P2" s="5" t="n">
+      <c r="P2" s="6">
         <v>43</v>
       </c>
-      <c r="Q2" s="5" t="n">
+      <c r="Q2" s="6">
         <v>44</v>
       </c>
-      <c r="R2" s="5" t="n">
+      <c r="R2" s="6">
         <v>45</v>
       </c>
-      <c r="S2" s="5" t="n">
+      <c r="S2" s="6">
         <v>46</v>
       </c>
-      <c r="T2" s="5" t="n">
+      <c r="T2" s="6">
         <v>47</v>
       </c>
-      <c r="U2" s="5" t="n">
+      <c r="U2" s="6">
         <v>48</v>
       </c>
-      <c r="V2" s="5" t="n">
+      <c r="V2" s="6">
         <v>49</v>
       </c>
-      <c r="W2" s="5" t="n">
+      <c r="W2" s="6">
         <v>50</v>
       </c>
-      <c r="X2" s="5" t="n">
+      <c r="X2" s="6">
         <v>51</v>
       </c>
-      <c r="Y2" s="5" t="n">
+      <c r="Y2" s="6">
         <v>52</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1"/>
+    <row r="3" spans="1:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -554,20 +849,20 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
-      <c r="R3" s="6" t="s">
+      <c r="R3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6" t="s">
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-    </row>
-    <row r="4" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+    </row>
+    <row r="4" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -590,25 +885,27 @@
       <c r="T4" s="10"/>
       <c r="U4" s="10"/>
       <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
+      <c r="W4" s="28" t="s">
+        <v>22</v>
+      </c>
       <c r="X4" s="10"/>
       <c r="Y4" s="10"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
-      <c r="G5" s="7"/>
+      <c r="G5" s="11"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="9"/>
-      <c r="L5" s="7"/>
+      <c r="L5" s="11"/>
       <c r="M5" s="7"/>
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
@@ -619,40 +916,44 @@
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
       <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
+      <c r="W5" s="28" t="s">
+        <v>22</v>
+      </c>
       <c r="X5" s="10"/>
       <c r="Y5" s="10"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="11"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="11"/>
+      <c r="F6" s="19"/>
       <c r="G6" s="11"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
-      <c r="K6" s="11"/>
+      <c r="K6" s="9"/>
       <c r="L6" s="11"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="7"/>
       <c r="R6" s="10"/>
       <c r="S6" s="10"/>
       <c r="T6" s="10"/>
       <c r="U6" s="10"/>
       <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
+      <c r="W6" s="28" t="s">
+        <v>22</v>
+      </c>
       <c r="X6" s="10"/>
       <c r="Y6" s="10"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
@@ -661,27 +962,29 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="11"/>
+      <c r="G7" s="19"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="10"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
       <c r="R7" s="10"/>
       <c r="S7" s="10"/>
       <c r="T7" s="10"/>
       <c r="U7" s="10"/>
       <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
+      <c r="W7" s="28" t="s">
+        <v>22</v>
+      </c>
       <c r="X7" s="10"/>
       <c r="Y7" s="10"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>11</v>
       </c>
@@ -695,22 +998,23 @@
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="9"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="22"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
       <c r="U8" s="10"/>
       <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
+      <c r="W8" s="28" t="s">
+        <v>22</v>
+      </c>
       <c r="X8" s="10"/>
       <c r="Y8" s="10"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>12</v>
       </c>
@@ -724,22 +1028,24 @@
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="27"/>
       <c r="T9" s="10"/>
       <c r="U9" s="10"/>
       <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
+      <c r="W9" s="28" t="s">
+        <v>22</v>
+      </c>
       <c r="X9" s="10"/>
       <c r="Y9" s="10"/>
     </row>
-    <row r="10" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>13</v>
       </c>
@@ -753,8 +1059,8 @@
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="9"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
       <c r="P10" s="10"/>
@@ -764,28 +1070,30 @@
       <c r="T10" s="10"/>
       <c r="U10" s="10"/>
       <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10" t="s">
+      <c r="W10" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X10" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="Y10" s="15"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y10" s="14"/>
+    </row>
+    <row r="11" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="7"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="20"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
       <c r="P11" s="10"/>
@@ -795,69 +1103,75 @@
       <c r="T11" s="10"/>
       <c r="U11" s="10"/>
       <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
+      <c r="W11" s="28" t="s">
+        <v>22</v>
+      </c>
       <c r="X11" s="10"/>
       <c r="Y11" s="10"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="7"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="20"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="18"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="16"/>
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
       <c r="T12" s="10"/>
       <c r="U12" s="10"/>
       <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
+      <c r="W12" s="28" t="s">
+        <v>22</v>
+      </c>
       <c r="X12" s="10"/>
       <c r="Y12" s="10"/>
     </row>
-    <row r="13" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="7"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="15"/>
       <c r="O13" s="10"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="19"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="15"/>
       <c r="T13" s="10"/>
       <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="28" t="s">
+        <v>22</v>
+      </c>
       <c r="X13" s="10"/>
       <c r="Y13" s="10"/>
     </row>
-    <row r="14" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>18</v>
       </c>
@@ -871,22 +1185,24 @@
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
       <c r="N14" s="7"/>
       <c r="O14" s="10"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="10"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
       <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="28" t="s">
+        <v>22</v>
+      </c>
       <c r="X14" s="10"/>
       <c r="Y14" s="10"/>
     </row>
-    <row r="15" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>19</v>
       </c>
@@ -900,22 +1216,24 @@
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="9"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
       <c r="N15" s="7"/>
       <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="28" t="s">
+        <v>22</v>
+      </c>
       <c r="X15" s="10"/>
       <c r="Y15" s="10"/>
     </row>
-    <row r="16" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>20</v>
       </c>
@@ -929,22 +1247,24 @@
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="9"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
       <c r="N16" s="7"/>
       <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="10"/>
       <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="15"/>
+      <c r="W16" s="28" t="s">
+        <v>22</v>
+      </c>
       <c r="X16" s="10"/>
       <c r="Y16" s="10"/>
     </row>
-    <row r="17" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>21</v>
       </c>
@@ -960,23 +1280,25 @@
       <c r="K17" s="9"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
       <c r="R17" s="10"/>
       <c r="S17" s="10"/>
       <c r="T17" s="10"/>
       <c r="U17" s="10"/>
       <c r="V17" s="10"/>
-      <c r="W17" s="10"/>
+      <c r="W17" s="28" t="s">
+        <v>22</v>
+      </c>
       <c r="X17" s="10"/>
       <c r="Y17" s="10"/>
     </row>
-    <row r="18" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
+    <row r="18" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
@@ -996,14 +1318,16 @@
       <c r="T18" s="10"/>
       <c r="U18" s="10"/>
       <c r="V18" s="10"/>
-      <c r="W18" s="10"/>
+      <c r="W18" s="28" t="s">
+        <v>22</v>
+      </c>
       <c r="X18" s="10"/>
       <c r="Y18" s="10"/>
     </row>
-    <row r="19" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
+    <row r="19" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
@@ -1023,14 +1347,16 @@
       <c r="T19" s="10"/>
       <c r="U19" s="10"/>
       <c r="V19" s="10"/>
-      <c r="W19" s="10"/>
+      <c r="W19" s="28" t="s">
+        <v>22</v>
+      </c>
       <c r="X19" s="10"/>
       <c r="Y19" s="10"/>
     </row>
-    <row r="20" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
+    <row r="20" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
@@ -1050,26 +1376,23 @@
       <c r="T20" s="10"/>
       <c r="U20" s="10"/>
       <c r="V20" s="10"/>
-      <c r="W20" s="10"/>
-      <c r="X20" s="20"/>
-      <c r="Y20" s="20"/>
+      <c r="W20" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X20" s="18"/>
+      <c r="Y20" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="V3:Y3"/>
     <mergeCell ref="B1:Q1"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="J3:M3"/>
     <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="R3:U3"/>
-    <mergeCell ref="V3:Y3"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" scale="93" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>